--- a/StudentData.xlsx
+++ b/StudentData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,32 +469,20 @@
           <t>DRL</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>tien</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nam</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Học lực</t>
+        </is>
       </c>
     </row>
   </sheetData>
